--- a/teaching/traditional_assets/database/data/oman/oman_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0536</v>
+        <v>0.0186</v>
       </c>
       <c r="E2">
-        <v>0.01285</v>
+        <v>-0.0185</v>
       </c>
       <c r="F2">
-        <v>-0.048</v>
+        <v>0.031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001383563820966921</v>
+        <v>0.001904635785514841</v>
       </c>
       <c r="J2">
-        <v>0.00120727685429247</v>
+        <v>0.001653099841405738</v>
       </c>
       <c r="K2">
-        <v>963.54</v>
+        <v>786.02</v>
       </c>
       <c r="L2">
-        <v>0.4114878715408268</v>
+        <v>0.3535216335342268</v>
       </c>
       <c r="M2">
-        <v>643.6</v>
+        <v>662</v>
       </c>
       <c r="N2">
-        <v>0.08913263257024942</v>
+        <v>0.09230340211935303</v>
       </c>
       <c r="O2">
-        <v>0.6679535878116114</v>
+        <v>0.8422177552734027</v>
       </c>
       <c r="P2">
-        <v>643.6</v>
+        <v>662</v>
       </c>
       <c r="Q2">
-        <v>0.08913263257024942</v>
+        <v>0.09230340211935303</v>
       </c>
       <c r="R2">
-        <v>0.6679535878116114</v>
+        <v>0.8422177552734027</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>9366.9</v>
+        <v>12006.3</v>
       </c>
       <c r="V2">
-        <v>1.297228800531804</v>
+        <v>1.674051868377022</v>
       </c>
       <c r="W2">
-        <v>0.09606859966572197</v>
+        <v>0.05497529992942837</v>
       </c>
       <c r="X2">
-        <v>0.08227200536831934</v>
+        <v>0.1046522318174949</v>
       </c>
       <c r="Y2">
-        <v>0.01379659429740263</v>
+        <v>-0.04967693188806649</v>
       </c>
       <c r="Z2">
-        <v>0.2709229982568163</v>
+        <v>0.2221337229824578</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05988589880980097</v>
+        <v>0.06661373217413705</v>
       </c>
       <c r="AC2">
-        <v>-0.05988589880980097</v>
+        <v>-0.06626701483094687</v>
       </c>
       <c r="AD2">
-        <v>7006.3</v>
+        <v>8361.5</v>
       </c>
       <c r="AE2">
-        <v>9.166234784119293</v>
+        <v>4.976163972431511</v>
       </c>
       <c r="AF2">
-        <v>7015.466234784119</v>
+        <v>8366.476163972431</v>
       </c>
       <c r="AG2">
-        <v>-2351.43376521588</v>
+        <v>-3639.82383602757</v>
       </c>
       <c r="AH2">
-        <v>0.4927918176203078</v>
+        <v>0.5384360780094366</v>
       </c>
       <c r="AI2">
-        <v>0.373429936429505</v>
+        <v>0.3962642496868344</v>
       </c>
       <c r="AJ2">
-        <v>-0.4829133696609488</v>
+        <v>-1.030476303292324</v>
       </c>
       <c r="AK2">
-        <v>-0.2496302636002867</v>
+        <v>-0.3996698578657664</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1381.095998423024</v>
+        <v>1598.757170172084</v>
       </c>
       <c r="AP2">
-        <v>-463.5193702377055</v>
+        <v>-695.9510202729579</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSBC Bank Oman S.A.O.G. (MSM:HBMO)</t>
+          <t>Oman Arab Bank SAOG (MSM:OAB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0588</v>
+        <v>0.0291</v>
       </c>
       <c r="E3">
-        <v>0.334</v>
+        <v>-0.0164</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01022394707870757</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008494523194747082</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>83.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L3">
-        <v>0.3684442485676509</v>
+        <v>0.3050541516245487</v>
       </c>
       <c r="M3">
-        <v>48.4</v>
+        <v>52.8</v>
       </c>
       <c r="N3">
-        <v>0.07699650015908367</v>
+        <v>0.06409322651128915</v>
       </c>
       <c r="O3">
-        <v>0.5789473684210527</v>
+        <v>0.7810650887573964</v>
       </c>
       <c r="P3">
-        <v>48.4</v>
+        <v>52.8</v>
       </c>
       <c r="Q3">
-        <v>0.07699650015908367</v>
+        <v>0.06409322651128915</v>
       </c>
       <c r="R3">
-        <v>0.5789473684210527</v>
+        <v>0.7810650887573964</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +770,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1210.2</v>
+        <v>788.9</v>
       </c>
       <c r="V3">
-        <v>1.925230671333121</v>
+        <v>0.9576353483855305</v>
       </c>
       <c r="W3">
-        <v>0.0964355750374899</v>
+        <v>0.07236137871976021</v>
       </c>
       <c r="X3">
-        <v>0.05892487088671834</v>
+        <v>0.05323450100951689</v>
       </c>
       <c r="Y3">
-        <v>0.03751070415077155</v>
+        <v>0.01912687771024332</v>
       </c>
       <c r="Z3">
-        <v>1.875192167333726</v>
+        <v>0.3734411863835523</v>
       </c>
       <c r="AA3">
-        <v>0.01592886336002439</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05667017904394116</v>
+        <v>0.05314826813901622</v>
       </c>
       <c r="AC3">
-        <v>-0.04074131568391677</v>
+        <v>-0.05314826813901622</v>
       </c>
       <c r="AD3">
-        <v>211.7</v>
+        <v>113.4</v>
       </c>
       <c r="AE3">
-        <v>2.700932039206265</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>214.4009320392063</v>
+        <v>113.4</v>
       </c>
       <c r="AG3">
-        <v>-995.7990679607938</v>
+        <v>-675.5</v>
       </c>
       <c r="AH3">
-        <v>0.2543305990428429</v>
+        <v>0.1209987195902689</v>
       </c>
       <c r="AI3">
-        <v>0.1914634341737623</v>
+        <v>0.09156237383932177</v>
       </c>
       <c r="AJ3">
-        <v>2.711877983489643</v>
+        <v>-4.554956169925828</v>
       </c>
       <c r="AK3">
-        <v>11.01558998808122</v>
+        <v>-1.502446619217082</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>74.02097902097903</v>
-      </c>
-      <c r="AP3">
-        <v>-348.1814922939839</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alizz Islamic Bank SAOG (MSM:BKIZ)</t>
+          <t>HSBC Bank Oman S.A.O.G. (MSM:HBMO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,7 +844,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.8059999999999999</v>
+        <v>-0.05429999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.188</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,82 +862,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-1.96</v>
+        <v>9.92</v>
       </c>
       <c r="L4">
-        <v>-0.04677804295942721</v>
+        <v>0.07364513734224203</v>
       </c>
       <c r="M4">
+        <v>45.2</v>
+      </c>
+      <c r="N4">
+        <v>0.09560067681895093</v>
+      </c>
+      <c r="O4">
+        <v>4.556451612903226</v>
+      </c>
+      <c r="P4">
+        <v>45.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.09560067681895093</v>
+      </c>
+      <c r="R4">
+        <v>4.556451612903226</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2229.6</v>
+      </c>
+      <c r="V4">
+        <v>4.715736040609137</v>
+      </c>
+      <c r="W4">
+        <v>0.01095648332228849</v>
+      </c>
+      <c r="X4">
+        <v>0.05706119504092237</v>
+      </c>
+      <c r="Y4">
+        <v>-0.04610471171863388</v>
+      </c>
+      <c r="Z4">
+        <v>-1.446831364124595</v>
+      </c>
+      <c r="AA4">
         <v>-0</v>
       </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>237</v>
-      </c>
-      <c r="V4">
-        <v>1.448655256723717</v>
-      </c>
-      <c r="W4">
-        <v>-0.009612555174104953</v>
-      </c>
-      <c r="X4">
-        <v>0.05498868885733064</v>
-      </c>
-      <c r="Y4">
-        <v>-0.06460124403143559</v>
-      </c>
-      <c r="Z4">
-        <v>0.3741071428571429</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
       <c r="AB4">
-        <v>0.05286506777315</v>
+        <v>0.05430220433998574</v>
       </c>
       <c r="AC4">
-        <v>-0.05286506777315</v>
+        <v>-0.05430220433998574</v>
       </c>
       <c r="AD4">
-        <v>31.2</v>
+        <v>119.2</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>31.2</v>
+        <v>119.2</v>
       </c>
       <c r="AG4">
-        <v>-205.8</v>
+        <v>-2110.4</v>
       </c>
       <c r="AH4">
-        <v>0.1601642710472279</v>
+        <v>0.2013513513513513</v>
       </c>
       <c r="AI4">
-        <v>0.1325966850828729</v>
+        <v>0.1199315826541906</v>
       </c>
       <c r="AJ4">
-        <v>4.876777251184833</v>
+        <v>1.288715192965315</v>
       </c>
       <c r="AK4">
-        <v>121.0588235294106</v>
+        <v>1.707857894310917</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bank muscat SAOG (MSM:BKMB)</t>
+          <t>Bank Dhofar SAOG (MSM:BKDB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,10 +966,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0411</v>
+        <v>0.0186</v>
       </c>
       <c r="E5">
-        <v>0.011</v>
+        <v>-0.0659</v>
+      </c>
+      <c r="F5">
+        <v>-0.048</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,34 +981,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01494799578366995</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01251894646882359</v>
       </c>
       <c r="K5">
-        <v>484.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="L5">
-        <v>0.4490496059341678</v>
+        <v>0.2837980938933992</v>
       </c>
       <c r="M5">
-        <v>286.7</v>
+        <v>51.7</v>
       </c>
       <c r="N5">
-        <v>0.08218431990827002</v>
+        <v>0.0684858921711485</v>
       </c>
       <c r="O5">
-        <v>0.5919884369192648</v>
+        <v>0.6430348258706468</v>
       </c>
       <c r="P5">
-        <v>286.7</v>
+        <v>51.7</v>
       </c>
       <c r="Q5">
-        <v>0.08218431990827002</v>
+        <v>0.0684858921711485</v>
       </c>
       <c r="R5">
-        <v>0.5919884369192648</v>
+        <v>0.6430348258706468</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1014,61 +1017,67 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>4588.3</v>
+        <v>405.1</v>
       </c>
       <c r="V5">
-        <v>1.315264440303856</v>
+        <v>0.5366273678632932</v>
       </c>
       <c r="W5">
-        <v>0.09855715419524208</v>
+        <v>0.04503192561890893</v>
       </c>
       <c r="X5">
-        <v>0.05991202087326841</v>
+        <v>0.1183838430483742</v>
       </c>
       <c r="Y5">
-        <v>0.03864513332197367</v>
+        <v>-0.07335191742946523</v>
       </c>
       <c r="Z5">
-        <v>0.6333313758881909</v>
+        <v>0.1286974881488184</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.001611156964807116</v>
       </c>
       <c r="AB5">
-        <v>0.05841961803844491</v>
+        <v>0.06766757890910133</v>
       </c>
       <c r="AC5">
-        <v>-0.05841961803844491</v>
+        <v>-0.06605642194429422</v>
       </c>
       <c r="AD5">
-        <v>1321.4</v>
+        <v>1570</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>4.976163972431511</v>
       </c>
       <c r="AF5">
-        <v>1321.4</v>
+        <v>1574.976163972432</v>
       </c>
       <c r="AG5">
-        <v>-3266.9</v>
+        <v>1169.876163972432</v>
       </c>
       <c r="AH5">
-        <v>0.274725046258758</v>
+        <v>0.6759913631148112</v>
       </c>
       <c r="AI5">
-        <v>0.2059121437364624</v>
+        <v>0.4654767877674599</v>
       </c>
       <c r="AJ5">
-        <v>-14.7423285198556</v>
+        <v>0.6077985512653031</v>
       </c>
       <c r="AK5">
-        <v>-1.786167304537999</v>
+        <v>0.3927767420546193</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>300.1912045889101</v>
+      </c>
+      <c r="AP5">
+        <v>223.6856910081131</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bank Dhofar SAOG (MSM:BKDB)</t>
+          <t>Ahli Bank SAOG (MSM:ABOB)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,13 +1097,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0536</v>
+        <v>0.0353</v>
       </c>
       <c r="E6">
-        <v>0.00023</v>
-      </c>
-      <c r="F6">
-        <v>-0.048</v>
+        <v>-0.00293</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1109,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>103.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L6">
-        <v>0.336156351791531</v>
+        <v>0.450856055802156</v>
       </c>
       <c r="M6">
-        <v>97.2</v>
+        <v>65</v>
       </c>
       <c r="N6">
-        <v>0.1015461763476807</v>
+        <v>0.1194633339459658</v>
       </c>
       <c r="O6">
-        <v>0.9418604651162791</v>
+        <v>0.9142053445850915</v>
       </c>
       <c r="P6">
-        <v>97.2</v>
+        <v>65</v>
       </c>
       <c r="Q6">
-        <v>0.1015461763476807</v>
+        <v>0.1194633339459658</v>
       </c>
       <c r="R6">
-        <v>0.9418604651162791</v>
+        <v>0.9142053445850915</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1139,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>768</v>
+        <v>385</v>
       </c>
       <c r="V6">
-        <v>0.8023401587964897</v>
+        <v>0.7075905164491821</v>
       </c>
       <c r="W6">
-        <v>0.06628556747382619</v>
+        <v>0.07139987949387427</v>
       </c>
       <c r="X6">
-        <v>0.08227200536831934</v>
+        <v>0.1046522318174949</v>
       </c>
       <c r="Y6">
-        <v>-0.01598643789449315</v>
+        <v>-0.03325235232362059</v>
       </c>
       <c r="Z6">
-        <v>0.1995865243339531</v>
+        <v>0.1015715573876079</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05988589880980097</v>
+        <v>0.06626701483094687</v>
       </c>
       <c r="AC6">
-        <v>-0.05988589880980097</v>
+        <v>-0.06626701483094687</v>
       </c>
       <c r="AD6">
-        <v>1180.2</v>
+        <v>911.7</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1180.2</v>
+        <v>911.7</v>
       </c>
       <c r="AG6">
-        <v>412.2</v>
+        <v>526.7</v>
       </c>
       <c r="AH6">
-        <v>0.5521661832132497</v>
+        <v>0.6262536062645967</v>
       </c>
       <c r="AI6">
-        <v>0.3979633126517399</v>
+        <v>0.4777050039297878</v>
       </c>
       <c r="AJ6">
-        <v>0.3010077406163283</v>
+        <v>0.4918752334703025</v>
       </c>
       <c r="AK6">
-        <v>0.1875682562795777</v>
+        <v>0.3457170987856908</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1213,10 +1219,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0301</v>
+        <v>-0.0464</v>
       </c>
       <c r="E7">
-        <v>0.0147</v>
+        <v>-0.118</v>
+      </c>
+      <c r="F7">
+        <v>0.031</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1225,34 +1234,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003546636751342761</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00299212111376843</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>132.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="L7">
-        <v>0.4135126681263684</v>
+        <v>0.3088818398096749</v>
       </c>
       <c r="M7">
-        <v>96.5</v>
+        <v>89.3</v>
       </c>
       <c r="N7">
-        <v>0.1241956241956242</v>
+        <v>0.1321592422672784</v>
       </c>
       <c r="O7">
-        <v>0.7299546142208775</v>
+        <v>1.146341463414634</v>
       </c>
       <c r="P7">
-        <v>96.5</v>
+        <v>89.3</v>
       </c>
       <c r="Q7">
-        <v>0.1241956241956242</v>
+        <v>0.1321592422672784</v>
       </c>
       <c r="R7">
-        <v>0.7299546142208775</v>
+        <v>1.146341463414634</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1261,67 +1270,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>833.9</v>
+        <v>787.1</v>
       </c>
       <c r="V7">
-        <v>1.073230373230373</v>
+        <v>1.164866064821666</v>
       </c>
       <c r="W7">
-        <v>0.09606859966572197</v>
+        <v>0.05497529992942837</v>
       </c>
       <c r="X7">
-        <v>0.08935402147720886</v>
+        <v>0.1076995809902387</v>
       </c>
       <c r="Y7">
-        <v>0.006714578188513107</v>
+        <v>-0.05272428106081034</v>
       </c>
       <c r="Z7">
-        <v>0.2463531144912886</v>
+        <v>0.1444196300750158</v>
       </c>
       <c r="AA7">
-        <v>0.0007371183553119961</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06075266872140112</v>
+        <v>0.06661373217413705</v>
       </c>
       <c r="AC7">
-        <v>-0.06001555036608912</v>
+        <v>-0.06661373217413705</v>
       </c>
       <c r="AD7">
-        <v>1163.2</v>
+        <v>1193.8</v>
       </c>
       <c r="AE7">
-        <v>5.030701152978597</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1168.230701152979</v>
+        <v>1193.8</v>
       </c>
       <c r="AG7">
-        <v>334.3307011529786</v>
+        <v>406.6999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.6005615171817635</v>
+        <v>0.6385664616207541</v>
       </c>
       <c r="AI7">
-        <v>0.4518864411721412</v>
+        <v>0.4630182678509094</v>
       </c>
       <c r="AJ7">
-        <v>0.3008381760767687</v>
+        <v>0.3757390983000738</v>
       </c>
       <c r="AK7">
-        <v>0.1909009537335661</v>
+        <v>0.227054488610987</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>543.5514018691589</v>
-      </c>
-      <c r="AP7">
-        <v>156.2292996041956</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ahli Bank SAOG (MSM:ABOB)</t>
+          <t>Sohar International Bank S.A.O.G. (MSM:BKSB)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1341,10 +1344,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0659</v>
+        <v>0.0393</v>
       </c>
       <c r="E8">
-        <v>0.04389999999999999</v>
+        <v>-0.00236</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1353,34 +1356,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.001341193218726558</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.001140380682152199</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>77.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="L8">
-        <v>0.4877742946708464</v>
+        <v>0.3495531281032771</v>
       </c>
       <c r="M8">
-        <v>53.9</v>
+        <v>58</v>
       </c>
       <c r="N8">
-        <v>0.1016022620169651</v>
+        <v>0.1007994438651373</v>
       </c>
       <c r="O8">
-        <v>0.6928020565552699</v>
+        <v>0.8238636363636362</v>
       </c>
       <c r="P8">
-        <v>53.9</v>
+        <v>58</v>
       </c>
       <c r="Q8">
-        <v>0.1016022620169651</v>
+        <v>0.1007994438651373</v>
       </c>
       <c r="R8">
-        <v>0.6928020565552699</v>
+        <v>0.8238636363636362</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1389,67 +1392,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>583.2</v>
+        <v>1866</v>
       </c>
       <c r="V8">
-        <v>1.099340245051838</v>
+        <v>3.2429614181439</v>
       </c>
       <c r="W8">
-        <v>0.09869339084105036</v>
+        <v>0.05148080438756856</v>
       </c>
       <c r="X8">
-        <v>0.1063195038708834</v>
+        <v>0.1518466425539178</v>
       </c>
       <c r="Y8">
-        <v>-0.007626113029833084</v>
+        <v>-0.1003658381663492</v>
       </c>
       <c r="Z8">
-        <v>0.1337151016470635</v>
+        <v>0.09239379759610973</v>
       </c>
       <c r="AA8">
-        <v>-0.0001524861188303289</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06222383698354252</v>
+        <v>0.06990185179990702</v>
       </c>
       <c r="AC8">
-        <v>-0.06237632310237284</v>
+        <v>-0.06990185179990702</v>
       </c>
       <c r="AD8">
-        <v>1140</v>
+        <v>1776.4</v>
       </c>
       <c r="AE8">
-        <v>1.43460159193443</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1141.434601591934</v>
+        <v>1776.4</v>
       </c>
       <c r="AG8">
-        <v>558.2346015919343</v>
+        <v>-89.59999999999991</v>
       </c>
       <c r="AH8">
-        <v>0.6827029002839682</v>
+        <v>0.7553363381239901</v>
       </c>
       <c r="AI8">
-        <v>0.5340708038049397</v>
+        <v>0.5637754292424387</v>
       </c>
       <c r="AJ8">
-        <v>0.512737080988967</v>
+        <v>-0.1844380403458211</v>
       </c>
       <c r="AK8">
-        <v>0.35921632698531</v>
+        <v>-0.06973305315588754</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>15616.43835616438</v>
-      </c>
-      <c r="AP8">
-        <v>7647.049336875813</v>
       </c>
     </row>
     <row r="9">
@@ -1460,7 +1457,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sohar International Bank S.A.O.G. (MSM:BKSB)</t>
+          <t>bank muscat SAOG (MSM:BKMB)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1469,10 +1466,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0375</v>
+        <v>0.00687</v>
       </c>
       <c r="E9">
-        <v>-0.00015</v>
+        <v>-0.0185</v>
+      </c>
+      <c r="F9">
+        <v>0.063</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1487,28 +1487,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>84.40000000000001</v>
+        <v>408.7</v>
       </c>
       <c r="L9">
-        <v>0.4055742431523306</v>
+        <v>0.4202570694087404</v>
       </c>
       <c r="M9">
-        <v>60.9</v>
+        <v>300</v>
       </c>
       <c r="N9">
-        <v>0.09018214127054643</v>
+        <v>0.09021742399182028</v>
       </c>
       <c r="O9">
-        <v>0.721563981042654</v>
+        <v>0.7340347443112307</v>
       </c>
       <c r="P9">
-        <v>60.9</v>
+        <v>300</v>
       </c>
       <c r="Q9">
-        <v>0.09018214127054643</v>
+        <v>0.09021742399182028</v>
       </c>
       <c r="R9">
-        <v>0.721563981042654</v>
+        <v>0.7340347443112307</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1517,55 +1517,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1146.3</v>
+        <v>5544.6</v>
       </c>
       <c r="V9">
-        <v>1.697467792092404</v>
+        <v>1.667398430216823</v>
       </c>
       <c r="W9">
-        <v>0.08386327503974564</v>
+        <v>0.08020173080319473</v>
       </c>
       <c r="X9">
-        <v>0.1259187683777905</v>
+        <v>0.07554686511302881</v>
       </c>
       <c r="Y9">
-        <v>-0.04205549333804481</v>
+        <v>0.004654865690165919</v>
       </c>
       <c r="Z9">
-        <v>0.07769563918757466</v>
+        <v>0.5317113176599237</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06950902236976891</v>
+        <v>0.07279148583010657</v>
       </c>
       <c r="AC9">
-        <v>-0.06950902236976891</v>
+        <v>-0.07279148583010657</v>
       </c>
       <c r="AD9">
-        <v>1958.6</v>
+        <v>2677</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1958.6</v>
+        <v>2677</v>
       </c>
       <c r="AG9">
-        <v>812.3</v>
+        <v>-2867.6</v>
       </c>
       <c r="AH9">
-        <v>0.7436121340977259</v>
+        <v>0.4459957016477017</v>
       </c>
       <c r="AI9">
-        <v>0.5888578214725955</v>
+        <v>0.3405982416631678</v>
       </c>
       <c r="AJ9">
-        <v>0.5460473245496101</v>
+        <v>-6.265239239676648</v>
       </c>
       <c r="AK9">
-        <v>0.37264886686852</v>
+        <v>-1.238650598246297</v>
       </c>
       <c r="AL9">
         <v>0</v>
